--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>33.65198525079978</v>
+        <v>33.64264157748815</v>
       </c>
       <c r="G2" t="n">
-        <v>33.04290903939032</v>
+        <v>33.04822614340361</v>
       </c>
       <c r="H2" t="n">
-        <v>34.26527019733533</v>
+        <v>34.26255084326154</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85287340724753</v>
+        <v>3.852848666237324</v>
       </c>
       <c r="J2" t="n">
-        <v>3.822080543126034</v>
+        <v>3.821485841668898</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8844429564244</v>
+        <v>3.884203944790998</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2696063292264522</v>
+        <v>0.2696032038637817</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2673114616373757</v>
+        <v>0.2672772571421074</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2719582958523004</v>
+        <v>0.271938621608267</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0978789981191099</v>
+        <v>0.1004515602882827</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009704501118314668</v>
+        <v>0.01119481366378316</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2094754341698974</v>
+        <v>0.2120291421887047</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08920292587446625</v>
+        <v>0.09155061170246738</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008838302364769872</v>
+        <v>0.01019581812649383</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1909119386810994</v>
+        <v>0.193241689418152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1046540885984698</v>
+        <v>0.1074134381666064</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01042122745784835</v>
+        <v>0.01202148096992459</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2236599070536358</v>
+        <v>0.2264050143074009</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>33.7498642489189</v>
+        <v>33.74309313777643</v>
       </c>
       <c r="G4" t="n">
-        <v>33.05261354050864</v>
+        <v>33.05942095706739</v>
       </c>
       <c r="H4" t="n">
-        <v>34.47474563150522</v>
+        <v>34.47457998545025</v>
       </c>
       <c r="I4" t="n">
-        <v>3.942076333121996</v>
+        <v>3.944399277939791</v>
       </c>
       <c r="J4" t="n">
-        <v>3.830918845490804</v>
+        <v>3.831681659795392</v>
       </c>
       <c r="K4" t="n">
-        <v>4.0753548951055</v>
+        <v>4.07744563420915</v>
       </c>
       <c r="L4" t="n">
-        <v>0.374260417824922</v>
+        <v>0.377016642030388</v>
       </c>
       <c r="M4" t="n">
-        <v>0.277732689095224</v>
+        <v>0.2792987381120319</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4956182029059361</v>
+        <v>0.4983436359156679</v>
       </c>
     </row>
   </sheetData>
